--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_1000/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-1.365986716174032</v>
+        <v>-1.138936913881212</v>
       </c>
       <c r="D2">
-        <v>0.1721260674327372</v>
+        <v>0.2669798143104525</v>
       </c>
       <c r="E2">
         <v>0.5274059432796518</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.673012682399083</v>
+        <v>-0.5926238491890118</v>
       </c>
       <c r="D3">
-        <v>0.5010318411788148</v>
+        <v>0.5594757112472144</v>
       </c>
       <c r="E3">
         <v>0.5274059432796518</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-0.1834825589844282</v>
+        <v>-0.2108856494167026</v>
       </c>
       <c r="D4">
-        <v>0.8544415568221746</v>
+        <v>0.8349176317146658</v>
       </c>
       <c r="E4">
         <v>0.5274059432796518</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3606567734897699</v>
+        <v>-0.3594640672952988</v>
       </c>
       <c r="D5">
-        <v>0.7184014104580689</v>
+        <v>0.7226753217388806</v>
       </c>
       <c r="E5">
         <v>0.5274059432796518</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.7889513186784106</v>
+        <v>0.6838061076243678</v>
       </c>
       <c r="D6">
-        <v>0.4302518465300036</v>
+        <v>0.5012372567111023</v>
       </c>
       <c r="E6">
         <v>0.5521967370331912</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.119902762638346</v>
+        <v>1.115527375867339</v>
       </c>
       <c r="D7">
-        <v>0.2629153733552441</v>
+        <v>0.2766618222240382</v>
       </c>
       <c r="E7">
         <v>0.5521967370331912</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.182408739123878</v>
+        <v>1.143300595426778</v>
       </c>
       <c r="D8">
-        <v>0.2372109750473272</v>
+        <v>0.2652029009680412</v>
       </c>
       <c r="E8">
         <v>0.5521967370331912</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.378045842916112</v>
+        <v>0.3864741216587823</v>
       </c>
       <c r="D9">
-        <v>0.7054443268701571</v>
+        <v>0.7028582073594207</v>
       </c>
       <c r="E9">
         <v>0.536450052167271</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2273812830381831</v>
+        <v>0.1734818279474576</v>
       </c>
       <c r="D10">
-        <v>0.8201549563178037</v>
+        <v>0.8638590281524323</v>
       </c>
       <c r="E10">
         <v>0.536450052167271</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.1591907706374381</v>
+        <v>-0.1460487573038325</v>
       </c>
       <c r="D11">
-        <v>0.8735377211922652</v>
+        <v>0.885212866590209</v>
       </c>
       <c r="E11">
         <v>0.530196162469594</v>
